--- a/大一寒假家教排班.xlsx
+++ b/大一寒假家教排班.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="35">
   <si>
     <t>ZW21116024</t>
   </si>
@@ -126,6 +126,10 @@
   </si>
   <si>
     <t>周五</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>M5</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1199,10 +1203,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1462,6 +1466,11 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
     </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
